--- a/public/productions/semi_acabado.xlsx
+++ b/public/productions/semi_acabado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t xml:space="preserve">DEFEITOS_SEM_PRODUCAO</t>
   </si>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">CM 400/550/550L</t>
   </si>
   <si>
-    <t xml:space="preserve">CM 500L FONTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM-500-L</t>
+    <t xml:space="preserve">CM 550L FONTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM-550-L</t>
   </si>
   <si>
     <t xml:space="preserve">CM 700 FONTE</t>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">CM-550 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM-550-L</t>
   </si>
   <si>
     <t xml:space="preserve">COND AWS-C-18F</t>
@@ -542,6 +539,23 @@
     <cellStyle name="Título da tabela dinâmica" xfId="24"/>
     <cellStyle name="Valor da tabela dinâmica" xfId="25"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -553,7 +567,7 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,13 +579,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -726,199 +740,199 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
@@ -929,7 +943,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -940,7 +954,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -951,7 +965,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -962,7 +976,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
@@ -973,7 +987,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
@@ -984,29 +998,29 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1017,29 +1031,29 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>4</v>
@@ -1050,7 +1064,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4</v>
@@ -1061,7 +1075,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
@@ -1072,7 +1086,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
@@ -1083,29 +1097,29 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1116,7 +1130,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
@@ -1127,7 +1141,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
@@ -1138,7 +1152,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -1149,7 +1163,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -1160,7 +1174,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
@@ -1171,7 +1185,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
@@ -1182,7 +1196,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -1193,7 +1207,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -1204,73 +1218,73 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1295,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -1292,7 +1306,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
@@ -1303,7 +1317,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
@@ -1314,7 +1328,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1339,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
@@ -1336,40 +1350,40 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>4</v>
@@ -1380,7 +1394,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>4</v>
@@ -1391,7 +1405,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -1402,18 +1416,18 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -1424,7 +1438,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1435,7 +1449,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -1446,7 +1460,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1457,7 +1471,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -1468,7 +1482,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
@@ -1479,18 +1493,18 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
@@ -1501,123 +1515,123 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
